--- a/amisbook识别文件/核放单模版 - 副本.xlsx
+++ b/amisbook识别文件/核放单模版 - 副本.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>进出标志</t>
   </si>
@@ -93,34 +93,13 @@
     <t>货物净重</t>
   </si>
   <si>
+    <t>入区</t>
+  </si>
+  <si>
     <t>一车一票</t>
   </si>
   <si>
     <t>QD802220I000000140</t>
-  </si>
-  <si>
-    <t>E80009</t>
-  </si>
-  <si>
-    <t>中国免税品(集团)有限责任公司</t>
-  </si>
-  <si>
-    <t>渝BP5687</t>
-  </si>
-  <si>
-    <t>0900163521</t>
-  </si>
-  <si>
-    <t>A0001</t>
-  </si>
-  <si>
-    <t>BVS44</t>
-  </si>
-  <si>
-    <t>BYU008</t>
-  </si>
-  <si>
-    <t>BVS4411</t>
   </si>
   <si>
     <t>必填项：进出标志、绑定类型、承运车牌号</t>
@@ -152,16 +131,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,23 +149,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -196,32 +170,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,22 +187,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,7 +209,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,23 +238,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,31 +284,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,151 +446,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,17 +478,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,6 +507,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,21 +550,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -573,26 +561,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,10 +583,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -616,133 +595,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -761,9 +740,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1116,7 +1092,7 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="A2 C7"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1223,54 +1199,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="2:17">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1">
-        <v>6810</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="1">
-        <v>300</v>
-      </c>
-      <c r="M2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="1">
-        <v>700</v>
-      </c>
-      <c r="O2" s="1">
-        <v>20000</v>
-      </c>
-      <c r="P2" s="1">
-        <v>10000</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>34</v>
+        <v>9810</v>
+      </c>
+      <c r="G2" s="1">
+        <v>123453</v>
       </c>
     </row>
     <row r="3" spans="4:4">
@@ -1305,7 +1248,7 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
